--- a/Data/Export/30 RB Engins.xlsx
+++ b/Data/Export/30 RB Engins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28220" windowHeight="11960"/>
+    <workbookView xWindow="285" yWindow="600" windowWidth="24240" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rege!$A$1:$M$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$79</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5805" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="215">
   <si>
     <t>num</t>
   </si>
@@ -674,28 +669,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -703,27 +699,17 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -748,19 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,8 +760,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -785,79 +780,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="18"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Pourcentage 2" xfId="3"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="XLConnect.Header" xfId="6"/>
+    <cellStyle name="XLConnect.Numeric" xfId="7"/>
+    <cellStyle name="XLConnect.String" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1147,18 +1106,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3060" topLeftCell="A95"/>
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>205</v>
       </c>
@@ -1216,8 +1175,11 @@
       <c r="S1" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>30</v>
       </c>
@@ -1246,7 +1208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -1275,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>30</v>
       </c>
@@ -1304,7 +1266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -1333,7 +1295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>30</v>
       </c>
@@ -1362,7 +1324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>30</v>
       </c>
@@ -1391,7 +1353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -1420,7 +1382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>30</v>
       </c>
@@ -1449,7 +1411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -1478,7 +1440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>30</v>
       </c>
@@ -1507,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>30</v>
       </c>
@@ -1536,7 +1498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>30</v>
       </c>
@@ -1565,7 +1527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>30</v>
       </c>
@@ -1594,7 +1556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>30</v>
       </c>
@@ -1623,7 +1585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>30</v>
       </c>
@@ -4206,27 +4168,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q104"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1436"/>
   <sheetViews>
     <sheetView topLeftCell="A1210" workbookViewId="0">
-      <pane ySplit="2780" topLeftCell="A1437" activePane="bottomLeft"/>
+      <pane ySplit="2775" topLeftCell="A1437" activePane="bottomLeft"/>
       <selection activeCell="E145" sqref="E145:E1428"/>
       <selection pane="bottomLeft" activeCell="C1454" sqref="C1454"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
@@ -60745,30 +60703,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q1436">
-    <sortCondition ref="A2:A1436"/>
-    <sortCondition ref="B2:B1436"/>
-    <sortCondition ref="F2:F1436"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
@@ -62839,24 +62788,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -65697,27 +65642,23 @@
       <c r="L79" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K79" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
@@ -66745,27 +66686,23 @@
       <c r="M26" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L26" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -66791,1799 +66728,1791 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="13">
-        <v>30</v>
-      </c>
-      <c r="B2" s="13">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3">
         <v>248</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>38994</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="13">
-        <v>30</v>
-      </c>
-      <c r="B3" s="13">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
         <v>249</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>38994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="13">
-        <v>30</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
         <v>250</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>38994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="13">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
         <v>251</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>38994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="13">
-        <v>30</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
         <v>252</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>38994</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="13">
-        <v>30</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
         <v>253</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>38999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="13">
-        <v>30</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3">
         <v>254</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>38999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="13">
-        <v>30</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
         <v>255</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>38999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="13">
-        <v>30</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
         <v>256</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>38999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="13">
-        <v>30</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="3">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
         <v>257</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>38999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="13">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="3">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
         <v>258</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>39001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="13">
-        <v>30</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="3">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
         <v>259</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>39001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="13">
-        <v>30</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
         <v>260</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>39001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="13">
-        <v>30</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
         <v>261</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>39001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="13">
-        <v>30</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
         <v>262</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>39006</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="13">
-        <v>30</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
         <v>263</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>39006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="13">
-        <v>30</v>
-      </c>
-      <c r="B18" s="13">
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
         <v>264</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>39006</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="13">
-        <v>30</v>
-      </c>
-      <c r="B19" s="13">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="3">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
         <v>265</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>39014</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="13">
-        <v>30</v>
-      </c>
-      <c r="B20" s="13">
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="3">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
         <v>266</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>39014</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="13">
-        <v>30</v>
-      </c>
-      <c r="B21" s="13">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="3">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
         <v>267</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>39014</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="13">
-        <v>30</v>
-      </c>
-      <c r="B22" s="13">
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
         <v>268</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>39014</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="13">
-        <v>30</v>
-      </c>
-      <c r="B23" s="13">
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
         <v>280</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>39014</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="13">
-        <v>30</v>
-      </c>
-      <c r="B24" s="13">
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="3">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
         <v>282</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>38869</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="13">
-        <v>30</v>
-      </c>
-      <c r="B25" s="13">
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="3">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
         <v>283</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>38869</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="13">
-        <v>30</v>
-      </c>
-      <c r="B26" s="13">
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="3">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3">
         <v>284</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>38869</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="13">
-        <v>30</v>
-      </c>
-      <c r="B27" s="13">
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
         <v>285</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>38869</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="13">
-        <v>30</v>
-      </c>
-      <c r="B28" s="13">
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="3">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
         <v>286</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>38869</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="13">
-        <v>30</v>
-      </c>
-      <c r="B29" s="13">
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
         <v>287</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>38869</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="13">
-        <v>30</v>
-      </c>
-      <c r="B30" s="13">
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
         <v>288</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13">
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
         <v>289</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13">
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
         <v>290</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="13">
-        <v>30</v>
-      </c>
-      <c r="B33" s="13">
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
         <v>291</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="13">
-        <v>30</v>
-      </c>
-      <c r="B34" s="13">
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
         <v>292</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="13">
-        <v>30</v>
-      </c>
-      <c r="B35" s="13">
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3">
         <v>293</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="13">
-        <v>30</v>
-      </c>
-      <c r="B36" s="13">
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3">
         <v>294</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>38876</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="13">
-        <v>30</v>
-      </c>
-      <c r="B37" s="13">
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
         <v>295</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>38890</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="13">
-        <v>30</v>
-      </c>
-      <c r="B38" s="13">
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="3">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3">
         <v>296</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>38890</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="13">
-        <v>30</v>
-      </c>
-      <c r="B39" s="13">
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="3">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3">
         <v>297</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>38890</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="13">
-        <v>30</v>
-      </c>
-      <c r="B40" s="13">
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="3">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3">
         <v>298</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>38890</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="13">
-        <v>30</v>
-      </c>
-      <c r="B41" s="13">
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" s="3">
+        <v>30</v>
+      </c>
+      <c r="B41" s="3">
         <v>299</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="3">
         <v>3</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>38898</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="13">
-        <v>30</v>
-      </c>
-      <c r="B42" s="13">
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="3">
+        <v>30</v>
+      </c>
+      <c r="B42" s="3">
         <v>300</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <v>38898</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="13">
-        <v>30</v>
-      </c>
-      <c r="B43" s="13">
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="3">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3">
         <v>301</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>38898</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="13">
-        <v>30</v>
-      </c>
-      <c r="B44" s="13">
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="3">
+        <v>30</v>
+      </c>
+      <c r="B44" s="3">
         <v>302</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="3">
         <v>3</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>38898</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="13">
-        <v>30</v>
-      </c>
-      <c r="B45" s="13">
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3">
         <v>303</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <v>38902</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="13">
-        <v>30</v>
-      </c>
-      <c r="B46" s="13">
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="3">
+        <v>30</v>
+      </c>
+      <c r="B46" s="3">
         <v>304</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>38902</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="13">
-        <v>30</v>
-      </c>
-      <c r="B47" s="13">
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="3">
+        <v>30</v>
+      </c>
+      <c r="B47" s="3">
         <v>305</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="3">
         <v>3</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
         <v>38902</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="13">
-        <v>30</v>
-      </c>
-      <c r="B48" s="13">
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="3">
+        <v>30</v>
+      </c>
+      <c r="B48" s="3">
         <v>306</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="15">
         <v>38902</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="13">
-        <v>30</v>
-      </c>
-      <c r="B49" s="13">
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="3">
+        <v>30</v>
+      </c>
+      <c r="B49" s="3">
         <v>307</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="3">
         <v>3</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="15">
         <v>38919</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="13">
-        <v>30</v>
-      </c>
-      <c r="B50" s="13">
+    <row r="50" spans="1:5" ht="15.75">
+      <c r="A50" s="3">
+        <v>30</v>
+      </c>
+      <c r="B50" s="3">
         <v>308</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
         <v>38919</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="13">
-        <v>30</v>
-      </c>
-      <c r="B51" s="13">
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" s="3">
+        <v>30</v>
+      </c>
+      <c r="B51" s="3">
         <v>309</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="3">
         <v>3</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>38855</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="13">
-        <v>30</v>
-      </c>
-      <c r="B52" s="13">
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="3">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3">
         <v>310</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>38855</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="13">
-        <v>30</v>
-      </c>
-      <c r="B53" s="13">
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="3">
+        <v>30</v>
+      </c>
+      <c r="B53" s="3">
         <v>311</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="15">
         <v>38930</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="13">
-        <v>30</v>
-      </c>
-      <c r="B54" s="13">
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="3">
+        <v>30</v>
+      </c>
+      <c r="B54" s="3">
         <v>312</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="3">
         <v>3</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="15">
         <v>38930</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="13">
-        <v>30</v>
-      </c>
-      <c r="B55" s="13">
+    <row r="55" spans="1:5" ht="15.75">
+      <c r="A55" s="3">
+        <v>30</v>
+      </c>
+      <c r="B55" s="3">
         <v>313</v>
       </c>
       <c r="C55" s="12">
         <v>1</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="3">
         <v>3</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="15">
         <v>38930</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="13">
-        <v>30</v>
-      </c>
-      <c r="B56" s="13">
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="3">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3">
         <v>314</v>
       </c>
       <c r="C56" s="12">
         <v>1</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="3">
         <v>3</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="15">
         <v>38930</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="13">
-        <v>30</v>
-      </c>
-      <c r="B57" s="13">
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="3">
+        <v>30</v>
+      </c>
+      <c r="B57" s="3">
         <v>315</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="15">
         <v>38936</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="13">
-        <v>30</v>
-      </c>
-      <c r="B58" s="13">
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="3">
+        <v>30</v>
+      </c>
+      <c r="B58" s="3">
         <v>316</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="15">
         <v>38936</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="13">
-        <v>30</v>
-      </c>
-      <c r="B59" s="13">
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="3">
+        <v>30</v>
+      </c>
+      <c r="B59" s="3">
         <v>317</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="3">
         <v>3</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="15">
         <v>38936</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="13">
-        <v>30</v>
-      </c>
-      <c r="B60" s="13">
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="3">
+        <v>30</v>
+      </c>
+      <c r="B60" s="3">
         <v>318</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="3">
         <v>3</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="15">
         <v>38936</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="13">
-        <v>30</v>
-      </c>
-      <c r="B61" s="13">
+    <row r="61" spans="1:5" ht="15.75">
+      <c r="A61" s="3">
+        <v>30</v>
+      </c>
+      <c r="B61" s="3">
         <v>319</v>
       </c>
       <c r="C61" s="12">
         <v>1</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="15">
         <v>38936</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="13">
-        <v>30</v>
-      </c>
-      <c r="B62" s="13">
+    <row r="62" spans="1:5" ht="15.75">
+      <c r="A62" s="3">
+        <v>30</v>
+      </c>
+      <c r="B62" s="3">
         <v>320</v>
       </c>
       <c r="C62" s="12">
         <v>1</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="3">
         <v>3</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="15">
         <v>38936</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="13">
-        <v>30</v>
-      </c>
-      <c r="B63" s="13">
+    <row r="63" spans="1:5" ht="15.75">
+      <c r="A63" s="3">
+        <v>30</v>
+      </c>
+      <c r="B63" s="3">
         <v>321</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="3">
         <v>3</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="15">
         <v>38938</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="13">
-        <v>30</v>
-      </c>
-      <c r="B64" s="13">
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="3">
+        <v>30</v>
+      </c>
+      <c r="B64" s="3">
         <v>322</v>
       </c>
       <c r="C64" s="12">
         <v>1</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="15">
         <v>38938</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="13">
-        <v>30</v>
-      </c>
-      <c r="B65" s="13">
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="3">
+        <v>30</v>
+      </c>
+      <c r="B65" s="3">
         <v>323</v>
       </c>
       <c r="C65" s="12">
         <v>1</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="3">
         <v>3</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="15">
         <v>38938</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="13">
-        <v>30</v>
-      </c>
-      <c r="B66" s="13">
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="3">
+        <v>30</v>
+      </c>
+      <c r="B66" s="3">
         <v>324</v>
       </c>
       <c r="C66" s="12">
         <v>1</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="13">
-        <v>30</v>
-      </c>
-      <c r="B67" s="13">
+    <row r="67" spans="1:5" ht="15.75">
+      <c r="A67" s="3">
+        <v>30</v>
+      </c>
+      <c r="B67" s="3">
         <v>325</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="3">
         <v>3</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="13">
-        <v>30</v>
-      </c>
-      <c r="B68" s="13">
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="3">
+        <v>30</v>
+      </c>
+      <c r="B68" s="3">
         <v>326</v>
       </c>
       <c r="C68" s="12">
         <v>1</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="3">
         <v>3</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="13">
-        <v>30</v>
-      </c>
-      <c r="B69" s="13">
+    <row r="69" spans="1:5" ht="15.75">
+      <c r="A69" s="3">
+        <v>30</v>
+      </c>
+      <c r="B69" s="3">
         <v>327</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="13">
-        <v>30</v>
-      </c>
-      <c r="B70" s="13">
+    <row r="70" spans="1:5" ht="15.75">
+      <c r="A70" s="3">
+        <v>30</v>
+      </c>
+      <c r="B70" s="3">
         <v>328</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="3">
         <v>3</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="13">
-        <v>30</v>
-      </c>
-      <c r="B71" s="13">
+    <row r="71" spans="1:5" ht="15.75">
+      <c r="A71" s="3">
+        <v>30</v>
+      </c>
+      <c r="B71" s="3">
         <v>329</v>
       </c>
       <c r="C71" s="12">
         <v>1</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="3">
         <v>3</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="13">
-        <v>30</v>
-      </c>
-      <c r="B72" s="13">
+    <row r="72" spans="1:5" ht="15.75">
+      <c r="A72" s="3">
+        <v>30</v>
+      </c>
+      <c r="B72" s="3">
         <v>330</v>
       </c>
       <c r="C72" s="12">
         <v>1</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="3">
         <v>3</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="15">
         <v>38952</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="13">
-        <v>30</v>
-      </c>
-      <c r="B73" s="13">
+    <row r="73" spans="1:5" ht="15.75">
+      <c r="A73" s="3">
+        <v>30</v>
+      </c>
+      <c r="B73" s="3">
         <v>331</v>
       </c>
       <c r="C73" s="12">
         <v>1</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="3">
         <v>3</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="15">
         <v>38959</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="13">
-        <v>30</v>
-      </c>
-      <c r="B74" s="13">
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" s="3">
+        <v>30</v>
+      </c>
+      <c r="B74" s="3">
         <v>332</v>
       </c>
       <c r="C74" s="12">
         <v>1</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="3">
         <v>3</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="15">
         <v>38959</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15">
-      <c r="A75" s="13">
-        <v>30</v>
-      </c>
-      <c r="B75" s="13">
+    <row r="75" spans="1:5" ht="15.75">
+      <c r="A75" s="3">
+        <v>30</v>
+      </c>
+      <c r="B75" s="3">
         <v>333</v>
       </c>
       <c r="C75" s="12">
         <v>1</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="3">
         <v>3</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="15">
         <v>38959</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="13">
-        <v>30</v>
-      </c>
-      <c r="B76" s="13">
+    <row r="76" spans="1:5" ht="15.75">
+      <c r="A76" s="3">
+        <v>30</v>
+      </c>
+      <c r="B76" s="3">
         <v>334</v>
       </c>
       <c r="C76" s="12">
         <v>1</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="3">
         <v>3</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="15">
         <v>38959</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="13">
-        <v>30</v>
-      </c>
-      <c r="B77" s="13">
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="3">
+        <v>30</v>
+      </c>
+      <c r="B77" s="3">
         <v>335</v>
       </c>
       <c r="C77" s="12">
         <v>1</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="3">
         <v>3</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="15">
         <v>38959</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="13">
-        <v>30</v>
-      </c>
-      <c r="B78" s="13">
+    <row r="78" spans="1:5" ht="15.75">
+      <c r="A78" s="3">
+        <v>30</v>
+      </c>
+      <c r="B78" s="3">
         <v>336</v>
       </c>
       <c r="C78" s="12">
         <v>1</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="3">
         <v>3</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="15">
         <v>39696</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="13">
-        <v>30</v>
-      </c>
-      <c r="B79" s="13">
+    <row r="79" spans="1:5" ht="15.75">
+      <c r="A79" s="3">
+        <v>30</v>
+      </c>
+      <c r="B79" s="3">
         <v>337</v>
       </c>
       <c r="C79" s="12">
         <v>1</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="3">
         <v>3</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="15">
         <v>39696</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="13">
-        <v>30</v>
-      </c>
-      <c r="B80" s="13">
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="3">
+        <v>30</v>
+      </c>
+      <c r="B80" s="3">
         <v>338</v>
       </c>
       <c r="C80" s="12">
         <v>1</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="3">
         <v>3</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="15">
         <v>38967</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="13">
-        <v>30</v>
-      </c>
-      <c r="B81" s="13">
+    <row r="81" spans="1:5" ht="15.75">
+      <c r="A81" s="3">
+        <v>30</v>
+      </c>
+      <c r="B81" s="3">
         <v>339</v>
       </c>
       <c r="C81" s="12">
         <v>1</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="3">
         <v>3</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="15">
         <v>38967</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="13">
-        <v>30</v>
-      </c>
-      <c r="B82" s="13">
+    <row r="82" spans="1:5" ht="15.75">
+      <c r="A82" s="3">
+        <v>30</v>
+      </c>
+      <c r="B82" s="3">
         <v>340</v>
       </c>
       <c r="C82" s="12">
         <v>1</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="3">
         <v>3</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="15">
         <v>38967</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="13">
-        <v>30</v>
-      </c>
-      <c r="B83" s="13">
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" s="3">
+        <v>30</v>
+      </c>
+      <c r="B83" s="3">
         <v>341</v>
       </c>
       <c r="C83" s="12">
         <v>1</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="3">
         <v>3</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="15">
         <v>38967</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="13">
-        <v>30</v>
-      </c>
-      <c r="B84" s="13">
+    <row r="84" spans="1:5" ht="15.75">
+      <c r="A84" s="3">
+        <v>30</v>
+      </c>
+      <c r="B84" s="3">
         <v>342</v>
       </c>
       <c r="C84" s="12">
         <v>1</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="3">
         <v>3</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="15">
         <v>38967</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="13">
-        <v>30</v>
-      </c>
-      <c r="B85" s="13">
+    <row r="85" spans="1:5" ht="15.75">
+      <c r="A85" s="3">
+        <v>30</v>
+      </c>
+      <c r="B85" s="3">
         <v>343</v>
       </c>
       <c r="C85" s="12">
         <v>1</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="3">
         <v>3</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="15">
         <v>38980</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="13">
-        <v>30</v>
-      </c>
-      <c r="B86" s="13">
+    <row r="86" spans="1:5" ht="15.75">
+      <c r="A86" s="3">
+        <v>30</v>
+      </c>
+      <c r="B86" s="3">
         <v>344</v>
       </c>
       <c r="C86" s="12">
         <v>1</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="3">
         <v>3</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="15">
         <v>38982</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="13">
-        <v>30</v>
-      </c>
-      <c r="B87" s="13">
+    <row r="87" spans="1:5" ht="15.75">
+      <c r="A87" s="3">
+        <v>30</v>
+      </c>
+      <c r="B87" s="3">
         <v>345</v>
       </c>
       <c r="C87" s="12">
         <v>1</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="3">
         <v>3</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="15">
         <v>38982</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="13">
-        <v>30</v>
-      </c>
-      <c r="B88" s="13">
+    <row r="88" spans="1:5" ht="15.75">
+      <c r="A88" s="3">
+        <v>30</v>
+      </c>
+      <c r="B88" s="3">
         <v>346</v>
       </c>
       <c r="C88" s="12">
         <v>1</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="3">
         <v>3</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="15">
         <v>38982</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="13">
-        <v>30</v>
-      </c>
-      <c r="B89" s="13">
+    <row r="89" spans="1:5" ht="15.75">
+      <c r="A89" s="3">
+        <v>30</v>
+      </c>
+      <c r="B89" s="3">
         <v>347</v>
       </c>
       <c r="C89" s="12">
         <v>1</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="3">
         <v>3</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="15">
         <v>38982</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="13">
-        <v>30</v>
-      </c>
-      <c r="B90" s="13">
+    <row r="90" spans="1:5" ht="15.75">
+      <c r="A90" s="3">
+        <v>30</v>
+      </c>
+      <c r="B90" s="3">
         <v>348</v>
       </c>
       <c r="C90" s="12">
         <v>1</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="3">
         <v>3</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="15">
         <v>38987</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="13">
-        <v>30</v>
-      </c>
-      <c r="B91" s="13">
+    <row r="91" spans="1:5" ht="15.75">
+      <c r="A91" s="3">
+        <v>30</v>
+      </c>
+      <c r="B91" s="3">
         <v>349</v>
       </c>
       <c r="C91" s="12">
         <v>1</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="3">
         <v>3</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="15">
         <v>38987</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15">
-      <c r="A92" s="13">
-        <v>30</v>
-      </c>
-      <c r="B92" s="13">
+    <row r="92" spans="1:5" ht="15.75">
+      <c r="A92" s="3">
+        <v>30</v>
+      </c>
+      <c r="B92" s="3">
         <v>350</v>
       </c>
       <c r="C92" s="12">
         <v>1</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="3">
         <v>3</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="15">
         <v>38987</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="A93" s="13">
-        <v>30</v>
-      </c>
-      <c r="B93" s="13">
+    <row r="93" spans="1:5" ht="15.75">
+      <c r="A93" s="3">
+        <v>30</v>
+      </c>
+      <c r="B93" s="3">
         <v>351</v>
       </c>
       <c r="C93" s="12">
         <v>1</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="3">
         <v>3</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="15">
         <v>38987</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="13">
-        <v>30</v>
-      </c>
-      <c r="B94" s="13">
+    <row r="94" spans="1:5" ht="15.75">
+      <c r="A94" s="3">
+        <v>30</v>
+      </c>
+      <c r="B94" s="3">
         <v>352</v>
       </c>
       <c r="C94" s="12">
         <v>1</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="3">
         <v>3</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="15">
         <v>38989</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="13">
-        <v>30</v>
-      </c>
-      <c r="B95" s="13">
+    <row r="95" spans="1:5" ht="15.75">
+      <c r="A95" s="3">
+        <v>30</v>
+      </c>
+      <c r="B95" s="3">
         <v>353</v>
       </c>
       <c r="C95" s="12">
         <v>1</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="3">
         <v>3</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="15">
         <v>38989</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="13">
-        <v>30</v>
-      </c>
-      <c r="B96" s="13">
+    <row r="96" spans="1:5" ht="15.75">
+      <c r="A96" s="3">
+        <v>30</v>
+      </c>
+      <c r="B96" s="3">
         <v>354</v>
       </c>
       <c r="C96" s="12">
         <v>1</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="3">
         <v>3</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="15">
         <v>38989</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="13">
-        <v>30</v>
-      </c>
-      <c r="B97" s="13">
+    <row r="97" spans="1:5" ht="15.75">
+      <c r="A97" s="3">
+        <v>30</v>
+      </c>
+      <c r="B97" s="3">
         <v>355</v>
       </c>
       <c r="C97" s="12">
         <v>1</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="3">
         <v>3</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="15">
         <v>38989</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="13">
-        <v>30</v>
-      </c>
-      <c r="B98" s="13">
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" s="3">
+        <v>30</v>
+      </c>
+      <c r="B98" s="3">
         <v>356</v>
       </c>
       <c r="C98" s="12">
         <v>1</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="3">
         <v>3</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="15">
         <v>38989</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="13">
-        <v>30</v>
-      </c>
-      <c r="B99" s="13">
+    <row r="99" spans="1:5" ht="15.75">
+      <c r="A99" s="3">
+        <v>30</v>
+      </c>
+      <c r="B99" s="3">
         <v>357</v>
       </c>
       <c r="C99" s="12">
         <v>1</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="3">
         <v>3</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="15">
         <v>38992</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="13">
-        <v>30</v>
-      </c>
-      <c r="B100" s="13">
+    <row r="100" spans="1:5" ht="15.75">
+      <c r="A100" s="3">
+        <v>30</v>
+      </c>
+      <c r="B100" s="3">
         <v>358</v>
       </c>
       <c r="C100" s="12">
         <v>1</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="3">
         <v>3</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="15">
         <v>38992</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="13">
-        <v>30</v>
-      </c>
-      <c r="B101" s="13">
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" s="3">
+        <v>30</v>
+      </c>
+      <c r="B101" s="3">
         <v>359</v>
       </c>
       <c r="C101" s="12">
         <v>1</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="3">
         <v>3</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="15">
         <v>38992</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15">
-      <c r="A102" s="13">
-        <v>30</v>
-      </c>
-      <c r="B102" s="13">
+    <row r="102" spans="1:5" ht="15.75">
+      <c r="A102" s="3">
+        <v>30</v>
+      </c>
+      <c r="B102" s="3">
         <v>360</v>
       </c>
       <c r="C102" s="12">
         <v>1</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="3">
         <v>3</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="15">
         <v>38994</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="A103" s="13">
-        <v>30</v>
-      </c>
-      <c r="B103" s="13">
+    <row r="103" spans="1:5" ht="15.75">
+      <c r="A103" s="3">
+        <v>30</v>
+      </c>
+      <c r="B103" s="3">
         <v>387</v>
       </c>
       <c r="C103" s="12">
         <v>1</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="3">
         <v>3</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="15">
         <v>38967</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15">
-      <c r="A104" s="13">
-        <v>30</v>
-      </c>
-      <c r="B104" s="13">
+    <row r="104" spans="1:5" ht="15.75">
+      <c r="A104" s="3">
+        <v>30</v>
+      </c>
+      <c r="B104" s="3">
         <v>394</v>
       </c>
       <c r="C104" s="12">
         <v>1</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="3">
         <v>3</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="16">
         <v>38967</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>